--- a/src/main/resources/bitcoin-config/Calculatons.xlsx
+++ b/src/main/resources/bitcoin-config/Calculatons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0. ProtonDrive\Other computers\DESKTOP-PR117J6\Software\Blockchain\cnsim-repo\src\main\resources\bitcoin-config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\4. Software\cnsim\src\main\resources\bitcoin-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{790C73B3-132D-43A6-98CD-DC0B57626B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A69E82-9166-4167-91D6-A927D0F0081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71A0909E-9532-41F6-8675-9097787CFB19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71A0909E-9532-41F6-8675-9097787CFB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Block Size</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>Tx for 2 hours</t>
+  </si>
+  <si>
+    <t>Arrival Rate</t>
+  </si>
+  <si>
+    <t>Tx/sec</t>
+  </si>
+  <si>
+    <t>Bytes/Tx</t>
+  </si>
+  <si>
+    <t>Bytes/Sec</t>
+  </si>
+  <si>
+    <t>Arrivals/Hour</t>
   </si>
 </sst>
 </file>
@@ -62,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -103,8 +118,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -440,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B152CA-4FC5-476F-8120-D159D27894EB}">
-  <dimension ref="D3:I7"/>
+  <dimension ref="D3:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,19 +521,19 @@
         <v>1000</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F7" si="0">D5/E5</f>
+        <f t="shared" ref="F5" si="0">D5/E5</f>
         <v>250</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G7" si="1">F5</f>
+        <f t="shared" ref="G5" si="1">F5</f>
         <v>250</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H7" si="2">G5*6</f>
+        <f t="shared" ref="H5" si="2">G5*6</f>
         <v>1500</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I7" si="3">G5*12</f>
+        <f t="shared" ref="I5" si="3">G5*12</f>
         <v>3000</v>
       </c>
     </row>
@@ -531,10 +546,78 @@
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6.4939999999999998</v>
+      </c>
+      <c r="F8">
+        <v>225</v>
+      </c>
+      <c r="G8">
+        <f>E8*F8</f>
+        <v>1461.1499999999999</v>
+      </c>
+      <c r="H8">
+        <f>E8*3600</f>
+        <v>23378.399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>G9/E9</f>
+        <v>1461.1499999999999</v>
+      </c>
+      <c r="G9">
+        <f>G8</f>
+        <v>1461.1499999999999</v>
+      </c>
+      <c r="H9">
+        <f>E9*3600</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10">
+        <f>G10/E10</f>
+        <v>4870.5</v>
+      </c>
+      <c r="G10">
+        <f>G9</f>
+        <v>1461.1499999999999</v>
+      </c>
+      <c r="H10">
+        <f>E10*3600</f>
+        <v>1080</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
